--- a/data/input2.xlsx
+++ b/data/input2.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="14" r:id="rId1"/>
     <sheet name="space_raw" sheetId="3" r:id="rId2"/>
     <sheet name="tasktype_raw" sheetId="5" r:id="rId3"/>
-    <sheet name="dep_raw" sheetId="11" r:id="rId4"/>
-    <sheet name="labor_raw" sheetId="12" r:id="rId5"/>
-    <sheet name="alt_raw" sheetId="13" r:id="rId6"/>
-    <sheet name="space" sheetId="2" r:id="rId7"/>
-    <sheet name="work" sheetId="7" r:id="rId8"/>
-    <sheet name="dep" sheetId="9" r:id="rId9"/>
+    <sheet name="last_tasktype_raw" sheetId="15" r:id="rId4"/>
+    <sheet name="dep_raw" sheetId="11" r:id="rId5"/>
+    <sheet name="labor_raw" sheetId="12" r:id="rId6"/>
+    <sheet name="alt_raw" sheetId="13" r:id="rId7"/>
+    <sheet name="space" sheetId="2" r:id="rId8"/>
+    <sheet name="work" sheetId="7" r:id="rId9"/>
+    <sheet name="dep" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +459,22 @@
   </si>
   <si>
     <t>모든 task는 alt를 가지고 있어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,11 +872,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1027,6 +1059,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1097,7 +1165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1157,7 +1225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1279,7 +1347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1588,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1686,19 +1754,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>